--- a/biology/Écologie/Leibniz-Institut_für_Ostseeforschung/Leibniz-Institut_für_Ostseeforschung.xlsx
+++ b/biology/Écologie/Leibniz-Institut_für_Ostseeforschung/Leibniz-Institut_für_Ostseeforschung.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Leibniz-Institut_f%C3%BCr_Ostseeforschung</t>
+          <t>Leibniz-Institut_für_Ostseeforschung</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Leibniz-Institut für Ostseeforschung (nom officiel allemand, Leibniz-Institut für Ostseeforschung Warnemünde ou IOW ; en français, Institut Leibniz pour la recherche en mer Baltique) est un établissement de recherche allemand situé à Warnemünde près de Rostock. L’IOW est un membre de la Leibniz-Gemeinschaft (communauté scientifique Leibniz). Il s’agit d’un institut océanographique portant un intérêt particulier à l’écosystème de la mer Baltique.
 Il est l’héritier du Warnemünder Institut für Meereskunde (Institut océanographique de Warnemünde) qui était membre de l’académie des sciences de la RDA et son principal pôle en recherche marine. En 1992, il fut annexé à l’université de Rostock et intégré à la Blaue Liste (liste bleue), l’ancêtre de la Leibniz-Gemeinschaft. L’IOW est principalement financé conjointement par le gouvernement fédéral et le Land de Mecklembourg-Poméranie-Occidentale.
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leibniz-Institut_f%C3%BCr_Ostseeforschung</t>
+          <t>Leibniz-Institut_für_Ostseeforschung</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Données</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Adresse : Seestrasse 15, Rostock-Warnemünde (Mecklembourg-Poméranie-Occidentale)
 Directeur : Prof. Dr. Bodo v. Bodungen (dep. 97)
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Leibniz-Institut_f%C3%BCr_Ostseeforschung</t>
+          <t>Leibniz-Institut_für_Ostseeforschung</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Dirigeants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Portail du monde maritime   Portail de l’écologie   Portail de l’Allemagne                   </t>
         </is>
